--- a/negation_detection/data/Results Across Models.xlsx
+++ b/negation_detection/data/Results Across Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuresMal\Documents\GitHub\task-vt\negation_detection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC8D39F-96E7-4091-B42F-F697F910C710}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEBD7A4-7968-4415-B967-57E29BD478AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Task Ref</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Trigger term list</t>
   </si>
   <si>
-    <t>1.6.1</t>
-  </si>
-  <si>
     <t>Using standfordcorenlp to tokenize</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>Recall</t>
   </si>
   <si>
-    <t>1.6.2</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -69,17 +63,7 @@
     <t>Details</t>
   </si>
   <si>
-    <t>1.6.3</t>
-  </si>
-  <si>
     <t>Dependancy parsing</t>
-  </si>
-  <si>
-    <t>Using scispacy</t>
-  </si>
-  <si>
-    <t>Evaluated for 5356 rows
-due to parser call timeout</t>
   </si>
   <si>
     <t>Roberta base</t>
@@ -106,6 +90,39 @@
   <si>
     <t>2 classes : +ve, -ve
 Fine-tuning on annoated data: x annotated rows duplicated with drug names replaced to create y rows</t>
+  </si>
+  <si>
+    <t>Using negspacy &amp; scispacy en_ner_bc5cdr_md</t>
+  </si>
+  <si>
+    <t>Using scispacy en_core_sci_lg</t>
+  </si>
+  <si>
+    <t># Evaluation data</t>
+  </si>
+  <si>
+    <t>1.6.1.a</t>
+  </si>
+  <si>
+    <t>1.6.1.b</t>
+  </si>
+  <si>
+    <t>1.6.2.a</t>
+  </si>
+  <si>
+    <t>1.6.2.b</t>
+  </si>
+  <si>
+    <t>1.6.2.c</t>
+  </si>
+  <si>
+    <t>1.6.3.a</t>
+  </si>
+  <si>
+    <t>1.6.3.b</t>
+  </si>
+  <si>
+    <t>1.6.3.c</t>
   </si>
 </sst>
 </file>
@@ -441,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -453,10 +470,11 @@
     <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="24.19921875" customWidth="1"/>
+    <col min="5" max="5" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,123 +482,138 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D9" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/negation_detection/data/Results Across Models.xlsx
+++ b/negation_detection/data/Results Across Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuresMal\Documents\GitHub\task-vt\negation_detection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEBD7A4-7968-4415-B967-57E29BD478AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4E0DB9-EB6D-4CA8-9501-C0742CEEA88E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Task Ref</t>
   </si>
@@ -123,13 +123,19 @@
   </si>
   <si>
     <t>1.6.3.c</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t># Negated entries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +153,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -169,18 +182,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -458,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -471,10 +487,11 @@
     <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.19921875" customWidth="1"/>
+    <col min="6" max="6" width="14.86328125" customWidth="1"/>
+    <col min="11" max="11" width="24.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,19 +508,25 @@
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -516,8 +539,26 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E2">
+        <v>379</v>
+      </c>
+      <c r="F2">
+        <v>42</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -530,8 +571,26 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E3">
+        <v>379</v>
+      </c>
+      <c r="F3">
+        <v>42</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -544,9 +603,27 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E4">
+        <v>379</v>
+      </c>
+      <c r="F4">
+        <v>42</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -559,8 +636,26 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E5">
+        <v>379</v>
+      </c>
+      <c r="F5">
+        <v>42</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="I5" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -573,8 +668,26 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E6">
+        <v>379</v>
+      </c>
+      <c r="F6">
+        <v>42</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -587,8 +700,12 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -601,8 +718,12 @@
       <c r="D8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -615,6 +736,10 @@
       <c r="D9" t="s">
         <v>19</v>
       </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/negation_detection/data/Results Across Models.xlsx
+++ b/negation_detection/data/Results Across Models.xlsx
@@ -8,17 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuresMal\Documents\GitHub\task-vt\negation_detection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4E0DB9-EB6D-4CA8-9501-C0742CEEA88E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00D7799-975A-4A4E-B5C7-0535BCCF3FC6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -69,9 +75,6 @@
     <t>Roberta base</t>
   </si>
   <si>
-    <t>Fine-tuning on Biocorpus abstract + full body text</t>
-  </si>
-  <si>
     <t>Bert base</t>
   </si>
   <si>
@@ -129,6 +132,9 @@
   </si>
   <si>
     <t># Negated entries</t>
+  </si>
+  <si>
+    <t>Fine-tuning on Biocorpus abstract</t>
   </si>
 </sst>
 </file>
@@ -476,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -502,13 +508,13 @@
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -520,7 +526,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -528,7 +534,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -537,7 +543,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>379</v>
@@ -560,7 +566,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -569,7 +575,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>379</v>
@@ -592,7 +598,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -601,7 +607,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>379</v>
@@ -625,16 +631,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>379</v>
@@ -657,16 +663,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>379</v>
@@ -689,34 +695,49 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>379</v>
+      </c>
+      <c r="F7">
+        <v>42</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="3">
+        <f>(2*H7*I7)/(H7+I7)</f>
+        <v>0.11111111111111112</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -725,16 +746,16 @@
     </row>
     <row r="9" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
